--- a/scrum/sprint_1.xlsx
+++ b/scrum/sprint_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tristan/Documents/L2/013/ForestWorld/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tristan/Documents/L2/013/ForestWorld/scrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B292DA43-E2DF-B146-B29C-E513ACE8E0CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7180161-8536-B545-AA3C-36AD058EB69F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-500" yWindow="500" windowWidth="27640" windowHeight="16440" xr2:uid="{73087F09-11BA-DA46-A1D1-CF04ABE318B5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="16440" xr2:uid="{73087F09-11BA-DA46-A1D1-CF04ABE318B5}"/>
   </bookViews>
   <sheets>
     <sheet name="semaine_1" sheetId="1" r:id="rId1"/>
@@ -1344,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50BC1C68-DB6D-104B-A89E-FD56C0ED0445}">
   <dimension ref="A1:AD230"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1624,10 +1624,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="67"/>
-      <c r="F8" s="67" t="s">
+      <c r="F8" s="67"/>
+      <c r="G8" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="68"/>
       <c r="H8" s="69"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>

--- a/scrum/sprint_1.xlsx
+++ b/scrum/sprint_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tristan/Documents/L2/013/ForestWorld/scrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7180161-8536-B545-AA3C-36AD058EB69F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E27967-9E36-494E-99B3-9DE80EC7A5CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="16440" xr2:uid="{73087F09-11BA-DA46-A1D1-CF04ABE318B5}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>En attente</t>
   </si>
@@ -1344,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50BC1C68-DB6D-104B-A89E-FD56C0ED0445}">
   <dimension ref="A1:AD230"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:G22"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="156" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1474,7 +1474,9 @@
       <c r="E4" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="59"/>
+      <c r="F4" s="59" t="s">
+        <v>3</v>
+      </c>
       <c r="G4" s="60"/>
       <c r="H4" s="61"/>
       <c r="I4" s="3"/>

--- a/scrum/sprint_1.xlsx
+++ b/scrum/sprint_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tristan/Documents/L2/013/ForestWorld/scrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E27967-9E36-494E-99B3-9DE80EC7A5CD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B27479-9BC7-D849-9541-09B43E722AA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="16440" xr2:uid="{73087F09-11BA-DA46-A1D1-CF04ABE318B5}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>En attente</t>
   </si>
@@ -1344,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50BC1C68-DB6D-104B-A89E-FD56C0ED0445}">
   <dimension ref="A1:AD230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="156" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1471,9 +1471,7 @@
       <c r="D4" s="58">
         <v>2</v>
       </c>
-      <c r="E4" s="59" t="s">
-        <v>3</v>
-      </c>
+      <c r="E4" s="59"/>
       <c r="F4" s="59" t="s">
         <v>3</v>
       </c>
@@ -1549,10 +1547,10 @@
       <c r="D6" s="58">
         <v>2</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="59"/>
+      <c r="F6" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="59"/>
       <c r="G6" s="60"/>
       <c r="H6" s="61"/>
       <c r="I6" s="3"/>
@@ -1937,10 +1935,10 @@
       <c r="D16" s="58">
         <v>2</v>
       </c>
-      <c r="E16" s="59" t="s">
+      <c r="E16" s="59"/>
+      <c r="F16" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="59"/>
       <c r="G16" s="60"/>
       <c r="H16" s="61"/>
       <c r="I16" s="3"/>

--- a/scrum/sprint_1.xlsx
+++ b/scrum/sprint_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tristan/Documents/L2/013/ForestWorld/scrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B27479-9BC7-D849-9541-09B43E722AA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93A5915-528D-CA42-9832-10D4CB226E60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="16440" xr2:uid="{73087F09-11BA-DA46-A1D1-CF04ABE318B5}"/>
   </bookViews>
@@ -1344,7 +1344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50BC1C68-DB6D-104B-A89E-FD56C0ED0445}">
   <dimension ref="A1:AD230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1779,11 +1779,11 @@
       <c r="D12" s="74">
         <v>1</v>
       </c>
-      <c r="E12" s="75" t="s">
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="75"/>
-      <c r="G12" s="76"/>
       <c r="H12" s="77"/>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>

--- a/scrum/sprint_1.xlsx
+++ b/scrum/sprint_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tristan/Documents/L2/013/ForestWorld/scrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93A5915-528D-CA42-9832-10D4CB226E60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B682ED01-04EB-6345-BA2A-77E96D873EB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="16440" xr2:uid="{73087F09-11BA-DA46-A1D1-CF04ABE318B5}"/>
   </bookViews>
@@ -1344,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50BC1C68-DB6D-104B-A89E-FD56C0ED0445}">
   <dimension ref="A1:AD230"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1510,10 +1510,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="59"/>
-      <c r="F5" s="59" t="s">
+      <c r="F5" s="59"/>
+      <c r="G5" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="60"/>
       <c r="H5" s="61"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -1936,10 +1936,10 @@
         <v>2</v>
       </c>
       <c r="E16" s="59"/>
-      <c r="F16" s="59" t="s">
+      <c r="F16" s="59"/>
+      <c r="G16" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="60"/>
       <c r="H16" s="61"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -1973,11 +1973,11 @@
       <c r="D17" s="66">
         <v>3</v>
       </c>
-      <c r="E17" s="67" t="s">
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="67"/>
-      <c r="G17" s="68"/>
       <c r="H17" s="69"/>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>

--- a/scrum/sprint_1.xlsx
+++ b/scrum/sprint_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tristan/Documents/L2/013/ForestWorld/scrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B682ED01-04EB-6345-BA2A-77E96D873EB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737F321E-2E9D-9A4B-9C60-278F36041356}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27640" windowHeight="16440" xr2:uid="{73087F09-11BA-DA46-A1D1-CF04ABE318B5}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">semaine_1!$A$1:$G$22</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -96,9 +97,6 @@
     <t>Pouvoir accélerer ou faire un pas en avant à la fois</t>
   </si>
   <si>
-    <t>Méthodes pour sérialiser classes représentant l'état en fichier</t>
-  </si>
-  <si>
     <t>commentaires</t>
   </si>
   <si>
@@ -109,9 +107,6 @@
   </si>
   <si>
     <t>Sauvegarder et restaurer des états de l'environnement</t>
-  </si>
-  <si>
-    <t>Méthodes pour parse fichiers de sauvegarde et restaurer état</t>
   </si>
   <si>
     <t>Remplacer ce format par un autre qu'est plus partique</t>
@@ -139,6 +134,12 @@
   </si>
   <si>
     <t>Actu</t>
+  </si>
+  <si>
+    <t>Méthodes pour restaurer sauvegarde</t>
+  </si>
+  <si>
+    <t>Méthodes pour sauvegarder</t>
   </si>
 </sst>
 </file>
@@ -1345,7 +1346,7 @@
   <dimension ref="A1:AD230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1361,7 +1362,7 @@
   <sheetData>
     <row r="1" spans="1:30" s="42" customFormat="1" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="91" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
@@ -1376,7 +1377,7 @@
     </row>
     <row r="2" spans="1:30" s="41" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>9</v>
@@ -1385,13 +1386,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E2" s="44" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G2" s="51" t="s">
         <v>1</v>
@@ -1423,10 +1424,10 @@
     <row r="3" spans="1:30" s="24" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
       <c r="B3" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="53">
         <v>1</v>
@@ -1548,10 +1549,10 @@
         <v>2</v>
       </c>
       <c r="E6" s="59"/>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="59"/>
+      <c r="G6" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="60"/>
       <c r="H6" s="61"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1618,7 +1619,7 @@
       <c r="A8" s="33"/>
       <c r="B8" s="94"/>
       <c r="C8" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D8" s="66">
         <v>3</v>
@@ -1701,11 +1702,11 @@
       <c r="D10" s="74">
         <v>2</v>
       </c>
-      <c r="E10" s="75" t="s">
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="75"/>
-      <c r="G10" s="76"/>
       <c r="H10" s="77"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
@@ -1739,11 +1740,11 @@
       <c r="D11" s="78">
         <v>1</v>
       </c>
-      <c r="E11" s="79" t="s">
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="79"/>
-      <c r="G11" s="80"/>
       <c r="H11" s="81"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1817,11 +1818,11 @@
       <c r="D13" s="66">
         <v>1</v>
       </c>
-      <c r="E13" s="67" t="s">
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="67"/>
-      <c r="G13" s="68"/>
       <c r="H13" s="69"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -1890,7 +1891,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="78">
         <v>3</v>
@@ -1930,7 +1931,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="58">
         <v>2</v>
@@ -1968,7 +1969,7 @@
       <c r="A17" s="33"/>
       <c r="B17" s="94"/>
       <c r="C17" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D17" s="66">
         <v>3</v>
@@ -2006,10 +2007,10 @@
       <c r="A18" s="30"/>
       <c r="B18" s="95"/>
       <c r="C18" s="28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D18" s="78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" s="79" t="s">
         <v>3</v>
@@ -2040,21 +2041,21 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="1:30" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="32"/>
       <c r="B19" s="89" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D19" s="58">
         <v>3</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="59"/>
+      <c r="F19" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="F19" s="59"/>
       <c r="G19" s="60"/>
       <c r="H19" s="61"/>
       <c r="I19" s="3"/>
@@ -2080,19 +2081,19 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
     </row>
-    <row r="20" spans="1:30" s="2" customFormat="1" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="30"/>
       <c r="B20" s="90"/>
       <c r="C20" s="39" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D20" s="78">
         <v>3</v>
       </c>
-      <c r="E20" s="79" t="s">
+      <c r="E20" s="79"/>
+      <c r="F20" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="F20" s="79"/>
       <c r="G20" s="80"/>
       <c r="H20" s="81"/>
       <c r="I20" s="1"/>
@@ -2162,7 +2163,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="82">
         <v>5</v>
